--- a/data/dataout/18mpip.xlsx
+++ b/data/dataout/18mpip.xlsx
@@ -906,13 +906,13 @@
         <v>1.35534</v>
       </c>
       <c r="N5">
-        <v>8.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="O5">
-        <v>1.35622</v>
+        <v>1.35629</v>
       </c>
       <c r="P5" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Q5">
         <v>-1.7</v>
@@ -989,13 +989,13 @@
         <v>1.35578</v>
       </c>
       <c r="N6">
-        <v>21.1</v>
+        <v>23.2</v>
       </c>
       <c r="O6">
-        <v>1.35789</v>
+        <v>1.3581</v>
       </c>
       <c r="P6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>1.35238</v>
       </c>
       <c r="N8">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="O8">
-        <v>1.35322</v>
+        <v>1.35332</v>
       </c>
       <c r="P8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Q8">
         <v>-1</v>
@@ -1241,13 +1241,13 @@
         <v>40</v>
       </c>
       <c r="Q9">
-        <v>-5.2</v>
+        <v>-5.7</v>
       </c>
       <c r="R9">
-        <v>1.35342</v>
+        <v>1.35337</v>
       </c>
       <c r="S9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T9">
         <v>1.3537</v>
@@ -1309,13 +1309,13 @@
         <v>1.36773</v>
       </c>
       <c r="N10">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="O10">
-        <v>1.3689</v>
+        <v>1.36891</v>
       </c>
       <c r="P10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q10">
         <v>-1.9</v>
@@ -1386,13 +1386,13 @@
         <v>1.37951</v>
       </c>
       <c r="N11">
-        <v>3.9</v>
+        <v>11.4</v>
       </c>
       <c r="O11">
-        <v>1.3799</v>
+        <v>1.38065</v>
       </c>
       <c r="P11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q11">
         <v>-4.8</v>
@@ -1540,13 +1540,13 @@
         <v>1.38062</v>
       </c>
       <c r="N13">
-        <v>25.3</v>
+        <v>29.2</v>
       </c>
       <c r="O13">
-        <v>1.38315</v>
+        <v>1.38354</v>
       </c>
       <c r="P13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q13">
         <v>-1.1</v>
@@ -1771,13 +1771,13 @@
         <v>1.39594</v>
       </c>
       <c r="N16">
-        <v>6.3</v>
+        <v>8.5</v>
       </c>
       <c r="O16">
-        <v>1.39657</v>
+        <v>1.39679</v>
       </c>
       <c r="P16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Q16">
         <v>-6.8</v>
@@ -1934,13 +1934,13 @@
         <v>38</v>
       </c>
       <c r="Q18">
-        <v>-3.1</v>
+        <v>-4.5</v>
       </c>
       <c r="R18">
-        <v>1.42226</v>
+        <v>1.42212</v>
       </c>
       <c r="S18" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T18">
         <v>1.4223</v>
@@ -2002,13 +2002,13 @@
         <v>1.42946</v>
       </c>
       <c r="N19">
-        <v>10.3</v>
+        <v>11.5</v>
       </c>
       <c r="O19">
-        <v>1.43049</v>
+        <v>1.43061</v>
       </c>
       <c r="P19" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Q19">
         <v>-1.9</v>
@@ -2165,13 +2165,13 @@
         <v>50</v>
       </c>
       <c r="Q21">
-        <v>-9</v>
+        <v>-14.9</v>
       </c>
       <c r="R21">
-        <v>1.40659</v>
+        <v>1.406</v>
       </c>
       <c r="S21" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="T21">
         <v>1.4067</v>
@@ -2242,13 +2242,13 @@
         <v>40</v>
       </c>
       <c r="Q22">
-        <v>-6</v>
+        <v>-11.4</v>
       </c>
       <c r="R22">
-        <v>1.41174</v>
+        <v>1.4112</v>
       </c>
       <c r="S22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T22">
         <v>1.4118</v>
@@ -2310,13 +2310,13 @@
         <v>1.41923</v>
       </c>
       <c r="N23">
-        <v>24.5</v>
+        <v>36.9</v>
       </c>
       <c r="O23">
-        <v>1.42168</v>
+        <v>1.42292</v>
       </c>
       <c r="P23" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Q23">
         <v>-3.3</v>
@@ -2396,13 +2396,13 @@
         <v>27</v>
       </c>
       <c r="Q24">
-        <v>-6.8</v>
+        <v>-9.5</v>
       </c>
       <c r="R24">
-        <v>1.42371</v>
+        <v>1.42344</v>
       </c>
       <c r="S24" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="T24">
         <v>1.4241</v>
@@ -2464,13 +2464,13 @@
         <v>1.41115</v>
       </c>
       <c r="N25">
-        <v>10.8</v>
+        <v>14.7</v>
       </c>
       <c r="O25">
-        <v>1.41223</v>
+        <v>1.41262</v>
       </c>
       <c r="P25" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q25">
         <v>-8.4</v>
@@ -2618,13 +2618,13 @@
         <v>1.38764</v>
       </c>
       <c r="N27">
-        <v>25.4</v>
+        <v>36.4</v>
       </c>
       <c r="O27">
-        <v>1.39018</v>
+        <v>1.39128</v>
       </c>
       <c r="P27" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2704,13 +2704,13 @@
         <v>33</v>
       </c>
       <c r="Q28">
-        <v>-28.7</v>
+        <v>-28.9</v>
       </c>
       <c r="R28">
-        <v>1.38825</v>
+        <v>1.38823</v>
       </c>
       <c r="S28" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="T28">
         <v>1.3885</v>
@@ -2787,13 +2787,13 @@
         <v>45</v>
       </c>
       <c r="Q29">
-        <v>-25.3</v>
+        <v>-28.2</v>
       </c>
       <c r="R29">
-        <v>1.39978</v>
+        <v>1.39949</v>
       </c>
       <c r="S29" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="T29">
         <v>1.4002</v>
@@ -3024,13 +3024,13 @@
         <v>58</v>
       </c>
       <c r="Q32">
-        <v>-17.2</v>
+        <v>-18.9</v>
       </c>
       <c r="R32">
-        <v>1.38781</v>
+        <v>1.38764</v>
       </c>
       <c r="S32" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T32">
         <v>1.3881</v>
@@ -3406,13 +3406,13 @@
         <v>1.39931</v>
       </c>
       <c r="N37">
-        <v>9.300000000000001</v>
+        <v>13.7</v>
       </c>
       <c r="O37">
-        <v>1.40024</v>
+        <v>1.40068</v>
       </c>
       <c r="P37" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Q37">
         <v>-3.9</v>
@@ -3489,13 +3489,13 @@
         <v>1.39681</v>
       </c>
       <c r="N38">
-        <v>7</v>
+        <v>12.4</v>
       </c>
       <c r="O38">
-        <v>1.39751</v>
+        <v>1.39805</v>
       </c>
       <c r="P38" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Q38">
         <v>-4.1</v>
@@ -3566,13 +3566,13 @@
         <v>1.39377</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="O39">
-        <v>1.394</v>
+        <v>1.39442</v>
       </c>
       <c r="P39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q39">
         <v>-12.3</v>
@@ -3883,13 +3883,13 @@
         <v>57</v>
       </c>
       <c r="Q43">
-        <v>-5.7</v>
+        <v>-8</v>
       </c>
       <c r="R43">
-        <v>1.37772</v>
+        <v>1.37749</v>
       </c>
       <c r="S43" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="T43">
         <v>1.37805</v>
@@ -3960,13 +3960,13 @@
         <v>58</v>
       </c>
       <c r="Q44">
-        <v>-26</v>
+        <v>-29.3</v>
       </c>
       <c r="R44">
-        <v>1.37233</v>
+        <v>1.372</v>
       </c>
       <c r="S44" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="T44">
         <v>1.3725</v>
@@ -4105,13 +4105,13 @@
         <v>1.38419</v>
       </c>
       <c r="N46">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="O46">
-        <v>1.38457</v>
+        <v>1.3847</v>
       </c>
       <c r="P46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q46">
         <v>-6</v>
@@ -4428,13 +4428,13 @@
         <v>49</v>
       </c>
       <c r="Q50">
-        <v>-5.3</v>
+        <v>-5.7</v>
       </c>
       <c r="R50">
-        <v>1.38657</v>
+        <v>1.38653</v>
       </c>
       <c r="S50" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T50">
         <v>1.387</v>
@@ -4496,13 +4496,13 @@
         <v>1.38879</v>
       </c>
       <c r="N51">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O51">
-        <v>1.38949</v>
+        <v>1.38961</v>
       </c>
       <c r="P51" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Q51">
         <v>-0.3</v>
@@ -4573,13 +4573,13 @@
         <v>1.39554</v>
       </c>
       <c r="N52">
-        <v>13.2</v>
+        <v>15</v>
       </c>
       <c r="O52">
-        <v>1.39686</v>
+        <v>1.39704</v>
       </c>
       <c r="P52" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -4650,13 +4650,13 @@
         <v>1.39645</v>
       </c>
       <c r="N53">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="O53">
-        <v>1.3965</v>
+        <v>1.39657</v>
       </c>
       <c r="P53" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="Q53">
         <v>-6.6</v>
@@ -4813,13 +4813,13 @@
         <v>58</v>
       </c>
       <c r="Q55">
-        <v>-14.6</v>
+        <v>-20.5</v>
       </c>
       <c r="R55">
-        <v>1.39004</v>
+        <v>1.38945</v>
       </c>
       <c r="S55" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="T55">
         <v>1.3916</v>
@@ -4890,13 +4890,13 @@
         <v>55</v>
       </c>
       <c r="Q56">
-        <v>-8.4</v>
+        <v>-12.5</v>
       </c>
       <c r="R56">
-        <v>1.40373</v>
+        <v>1.40332</v>
       </c>
       <c r="S56" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="T56">
         <v>1.4035</v>
@@ -4958,13 +4958,13 @@
         <v>1.39966</v>
       </c>
       <c r="N57">
-        <v>12.1</v>
+        <v>13.6</v>
       </c>
       <c r="O57">
-        <v>1.40087</v>
+        <v>1.40102</v>
       </c>
       <c r="P57" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -5035,13 +5035,13 @@
         <v>1.40687</v>
       </c>
       <c r="N58">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="O58">
-        <v>1.40729</v>
+        <v>1.40739</v>
       </c>
       <c r="P58" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -5506,13 +5506,13 @@
         <v>38</v>
       </c>
       <c r="Q64">
-        <v>-24.7</v>
+        <v>-30</v>
       </c>
       <c r="R64">
-        <v>1.40276</v>
+        <v>1.40223</v>
       </c>
       <c r="S64" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T64">
         <v>1.4034</v>
@@ -5583,13 +5583,13 @@
         <v>50</v>
       </c>
       <c r="Q65">
-        <v>-0.2</v>
+        <v>-4.8</v>
       </c>
       <c r="R65">
-        <v>1.40386</v>
+        <v>1.4034</v>
       </c>
       <c r="S65" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="U65">
         <v>1.4034</v>
@@ -5648,13 +5648,13 @@
         <v>1.40536</v>
       </c>
       <c r="N66">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="O66">
-        <v>1.40549</v>
+        <v>1.4055</v>
       </c>
       <c r="P66" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q66">
         <v>-4.9</v>
@@ -5725,13 +5725,13 @@
         <v>1.40366</v>
       </c>
       <c r="N67">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="O67">
-        <v>1.40436</v>
+        <v>1.40451</v>
       </c>
       <c r="P67" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="Q67">
         <v>0</v>
@@ -5965,13 +5965,13 @@
         <v>58</v>
       </c>
       <c r="Q70">
-        <v>-12</v>
+        <v>-14.2</v>
       </c>
       <c r="R70">
-        <v>1.40844</v>
+        <v>1.40822</v>
       </c>
       <c r="S70" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="T70">
         <v>1.4086</v>
@@ -6042,13 +6042,13 @@
         <v>45</v>
       </c>
       <c r="Q71">
-        <v>-17.7</v>
+        <v>-19.2</v>
       </c>
       <c r="R71">
-        <v>1.41272</v>
+        <v>1.41257</v>
       </c>
       <c r="S71" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T71">
         <v>1.4129</v>
@@ -6350,13 +6350,13 @@
         <v>27</v>
       </c>
       <c r="Q75">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="R75">
-        <v>1.42415</v>
+        <v>1.42414</v>
       </c>
       <c r="S75" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="T75">
         <v>1.425</v>
@@ -6504,13 +6504,13 @@
         <v>40</v>
       </c>
       <c r="Q77">
-        <v>-8.199999999999999</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="R77">
-        <v>1.43062</v>
+        <v>1.43051</v>
       </c>
       <c r="S77" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T77">
         <v>1.4309</v>
@@ -6726,13 +6726,13 @@
         <v>1.40188</v>
       </c>
       <c r="N80">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="O80">
-        <v>1.40242</v>
+        <v>1.40249</v>
       </c>
       <c r="P80" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="Q80">
         <v>-1.8</v>
@@ -6889,13 +6889,13 @@
         <v>49</v>
       </c>
       <c r="Q82">
-        <v>-10.1</v>
+        <v>-11.6</v>
       </c>
       <c r="R82">
-        <v>1.39618</v>
+        <v>1.39603</v>
       </c>
       <c r="S82" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="T82">
         <v>1.3966</v>
@@ -6957,13 +6957,13 @@
         <v>1.39292</v>
       </c>
       <c r="N83">
-        <v>6.3</v>
+        <v>8.4</v>
       </c>
       <c r="O83">
-        <v>1.39355</v>
+        <v>1.39376</v>
       </c>
       <c r="P83" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Q83">
         <v>-2.7</v>
@@ -7043,13 +7043,13 @@
         <v>40</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-10.7</v>
       </c>
       <c r="R84">
-        <v>1.3937</v>
+        <v>1.39263</v>
       </c>
       <c r="S84" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="T84">
         <v>1.3939</v>
@@ -7280,13 +7280,13 @@
         <v>38</v>
       </c>
       <c r="Q87">
-        <v>-10.3</v>
+        <v>-14.2</v>
       </c>
       <c r="R87">
-        <v>1.35945</v>
+        <v>1.35906</v>
       </c>
       <c r="S87" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="T87">
         <v>1.3597</v>
@@ -7357,13 +7357,13 @@
         <v>50</v>
       </c>
       <c r="Q88">
-        <v>-7.9</v>
+        <v>-11.5</v>
       </c>
       <c r="R88">
-        <v>1.35972</v>
+        <v>1.35936</v>
       </c>
       <c r="S88" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="T88">
         <v>1.36</v>
@@ -7440,13 +7440,13 @@
         <v>55</v>
       </c>
       <c r="Q89">
-        <v>-16.1</v>
+        <v>-18.3</v>
       </c>
       <c r="R89">
-        <v>1.35414</v>
+        <v>1.35392</v>
       </c>
       <c r="S89" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T89">
         <v>1.3542</v>
@@ -7517,13 +7517,13 @@
         <v>33</v>
       </c>
       <c r="Q90">
-        <v>-2.5</v>
+        <v>-3.5</v>
       </c>
       <c r="R90">
-        <v>1.35173</v>
+        <v>1.35163</v>
       </c>
       <c r="S90" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T90">
         <v>1.3518</v>
@@ -7585,13 +7585,13 @@
         <v>1.35621</v>
       </c>
       <c r="N91">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="O91">
-        <v>1.35692</v>
+        <v>1.35697</v>
       </c>
       <c r="P91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q91">
         <v>0</v>
@@ -8210,13 +8210,13 @@
         <v>40</v>
       </c>
       <c r="Q99">
-        <v>-3.5</v>
+        <v>-7.3</v>
       </c>
       <c r="R99">
-        <v>1.35015</v>
+        <v>1.34977</v>
       </c>
       <c r="S99" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="T99">
         <v>1.3504</v>
@@ -8364,13 +8364,13 @@
         <v>33</v>
       </c>
       <c r="Q101">
-        <v>-14.5</v>
+        <v>-17.6</v>
       </c>
       <c r="R101">
-        <v>1.34087</v>
+        <v>1.34056</v>
       </c>
       <c r="S101" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="T101">
         <v>1.341</v>
@@ -8518,13 +8518,13 @@
         <v>49</v>
       </c>
       <c r="Q103">
-        <v>-7.7</v>
+        <v>-10.7</v>
       </c>
       <c r="R103">
-        <v>1.33412</v>
+        <v>1.33382</v>
       </c>
       <c r="S103" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T103">
         <v>1.3343</v>
@@ -8663,13 +8663,13 @@
         <v>1.33102</v>
       </c>
       <c r="N105">
-        <v>3.4</v>
+        <v>5.9</v>
       </c>
       <c r="O105">
-        <v>1.33136</v>
+        <v>1.33161</v>
       </c>
       <c r="P105" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="Q105">
         <v>-4.4</v>
@@ -8826,13 +8826,13 @@
         <v>50</v>
       </c>
       <c r="Q107">
-        <v>-5.8</v>
+        <v>-10.7</v>
       </c>
       <c r="R107">
-        <v>1.32731</v>
+        <v>1.32682</v>
       </c>
       <c r="S107" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="T107">
         <v>1.32735</v>
@@ -8986,13 +8986,13 @@
         <v>58</v>
       </c>
       <c r="Q109">
-        <v>-30.2</v>
+        <v>-33.2</v>
       </c>
       <c r="R109">
-        <v>1.33025</v>
+        <v>1.32995</v>
       </c>
       <c r="S109" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="T109">
         <v>1.3312</v>
@@ -9214,13 +9214,13 @@
         <v>1.33361</v>
       </c>
       <c r="N112">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="O112">
-        <v>1.33435</v>
+        <v>1.33436</v>
       </c>
       <c r="P112" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="Q112">
         <v>-1.7</v>
@@ -9300,13 +9300,13 @@
         <v>26</v>
       </c>
       <c r="Q113">
-        <v>-4.6</v>
+        <v>-4.8</v>
       </c>
       <c r="R113">
-        <v>1.34253</v>
+        <v>1.34251</v>
       </c>
       <c r="S113" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="T113">
         <v>1.34295</v>
@@ -9368,13 +9368,13 @@
         <v>1.34029</v>
       </c>
       <c r="N114">
-        <v>13.7</v>
+        <v>18.4</v>
       </c>
       <c r="O114">
-        <v>1.34166</v>
+        <v>1.34213</v>
       </c>
       <c r="P114" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Q114">
         <v>-2.3</v>
@@ -9445,13 +9445,13 @@
         <v>1.33814</v>
       </c>
       <c r="N115">
-        <v>15.6</v>
+        <v>24.9</v>
       </c>
       <c r="O115">
-        <v>1.3397</v>
+        <v>1.34063</v>
       </c>
       <c r="P115" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Q115">
         <v>-2.8</v>
@@ -9614,13 +9614,13 @@
         <v>40</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>-3.6</v>
       </c>
       <c r="R117">
-        <v>1.33537</v>
+        <v>1.33501</v>
       </c>
       <c r="S117" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="T117">
         <v>1.3355</v>
@@ -9759,13 +9759,13 @@
         <v>1.33138</v>
       </c>
       <c r="N119">
-        <v>17.5</v>
+        <v>18.6</v>
       </c>
       <c r="O119">
-        <v>1.33313</v>
+        <v>1.33324</v>
       </c>
       <c r="P119" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -10153,13 +10153,13 @@
         <v>55</v>
       </c>
       <c r="Q124">
-        <v>-9.1</v>
+        <v>-9.4</v>
       </c>
       <c r="R124">
-        <v>1.32562</v>
+        <v>1.32559</v>
       </c>
       <c r="S124" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T124">
         <v>1.32575</v>
@@ -10304,13 +10304,13 @@
         <v>1.32654</v>
       </c>
       <c r="N126">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O126">
-        <v>1.32685</v>
+        <v>1.32688</v>
       </c>
       <c r="P126" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q126">
         <v>-7.8</v>
@@ -10396,13 +10396,13 @@
         <v>50</v>
       </c>
       <c r="Q127">
-        <v>-6.3</v>
+        <v>-7.3</v>
       </c>
       <c r="R127">
-        <v>1.32327</v>
+        <v>1.32317</v>
       </c>
       <c r="S127" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T127">
         <v>1.3234</v>
@@ -10858,13 +10858,13 @@
         <v>33</v>
       </c>
       <c r="Q133">
-        <v>-7.1</v>
+        <v>-8.4</v>
       </c>
       <c r="R133">
-        <v>1.32093</v>
+        <v>1.3208</v>
       </c>
       <c r="S133" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="T133">
         <v>1.32115</v>
@@ -11166,13 +11166,13 @@
         <v>27</v>
       </c>
       <c r="Q137">
-        <v>-6.2</v>
+        <v>-6.9</v>
       </c>
       <c r="R137">
-        <v>1.32647</v>
+        <v>1.3264</v>
       </c>
       <c r="S137" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="T137">
         <v>1.32675</v>
@@ -11243,13 +11243,13 @@
         <v>58</v>
       </c>
       <c r="Q138">
-        <v>-10.2</v>
+        <v>-12.5</v>
       </c>
       <c r="R138">
-        <v>1.32485</v>
+        <v>1.32462</v>
       </c>
       <c r="S138" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T138">
         <v>1.32505</v>
@@ -11480,13 +11480,13 @@
         <v>58</v>
       </c>
       <c r="Q141">
-        <v>-22.1</v>
+        <v>-26.1</v>
       </c>
       <c r="R141">
-        <v>1.32314</v>
+        <v>1.32274</v>
       </c>
       <c r="S141" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T141">
         <v>1.32325</v>
@@ -11625,13 +11625,13 @@
         <v>1.30446</v>
       </c>
       <c r="N143">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O143">
-        <v>1.30496</v>
+        <v>1.30497</v>
       </c>
       <c r="P143" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q143">
         <v>-6.8</v>
@@ -11788,13 +11788,13 @@
         <v>52</v>
       </c>
       <c r="Q145">
-        <v>-8.5</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="R145">
-        <v>1.30993</v>
+        <v>1.3099</v>
       </c>
       <c r="S145" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="T145">
         <v>1.3102</v>
@@ -11933,13 +11933,13 @@
         <v>1.31463</v>
       </c>
       <c r="N147">
-        <v>4.7</v>
+        <v>9.4</v>
       </c>
       <c r="O147">
-        <v>1.3151</v>
+        <v>1.31557</v>
       </c>
       <c r="P147" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q147">
         <v>-7.8</v>
@@ -12010,13 +12010,13 @@
         <v>1.31444</v>
       </c>
       <c r="N148">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="O148">
-        <v>1.31498</v>
+        <v>1.31504</v>
       </c>
       <c r="P148" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q148">
         <v>-4.9</v>
@@ -12087,13 +12087,13 @@
         <v>1.31397</v>
       </c>
       <c r="N149">
-        <v>7.4</v>
+        <v>11.9</v>
       </c>
       <c r="O149">
-        <v>1.31471</v>
+        <v>1.31516</v>
       </c>
       <c r="P149" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q149">
         <v>-3.8</v>
@@ -12256,13 +12256,13 @@
         <v>57</v>
       </c>
       <c r="Q151">
-        <v>-1.1</v>
+        <v>-2</v>
       </c>
       <c r="R151">
-        <v>1.31452</v>
+        <v>1.31443</v>
       </c>
       <c r="S151" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="T151">
         <v>1.3147</v>
@@ -12564,13 +12564,13 @@
         <v>50</v>
       </c>
       <c r="Q155">
-        <v>-2.7</v>
+        <v>-5.3</v>
       </c>
       <c r="R155">
-        <v>1.30182</v>
+        <v>1.30156</v>
       </c>
       <c r="S155" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="T155">
         <v>1.3019</v>
@@ -12709,13 +12709,13 @@
         <v>1.29433</v>
       </c>
       <c r="N157">
-        <v>9.699999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="O157">
-        <v>1.2953</v>
+        <v>1.29546</v>
       </c>
       <c r="P157" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q157">
         <v>0</v>
@@ -12786,13 +12786,13 @@
         <v>1.28724</v>
       </c>
       <c r="N158">
-        <v>9.800000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="O158">
-        <v>1.28822</v>
+        <v>1.28847</v>
       </c>
       <c r="P158" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Q158">
         <v>-1.4</v>
@@ -13032,13 +13032,13 @@
         <v>58</v>
       </c>
       <c r="Q161">
-        <v>-7.5</v>
+        <v>-8.1</v>
       </c>
       <c r="R161">
-        <v>1.27762</v>
+        <v>1.27756</v>
       </c>
       <c r="S161" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="T161">
         <v>1.2777</v>
@@ -13254,13 +13254,13 @@
         <v>1.27215</v>
       </c>
       <c r="N164">
-        <v>4.9</v>
+        <v>6.5</v>
       </c>
       <c r="O164">
-        <v>1.27264</v>
+        <v>1.2728</v>
       </c>
       <c r="P164" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q164">
         <v>-2.5</v>
@@ -13331,13 +13331,13 @@
         <v>1.27327</v>
       </c>
       <c r="N165">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="O165">
-        <v>1.27389</v>
+        <v>1.27398</v>
       </c>
       <c r="P165" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Q165">
         <v>-4.4</v>
@@ -13417,13 +13417,13 @@
         <v>55</v>
       </c>
       <c r="Q166">
-        <v>-12.5</v>
+        <v>-12.6</v>
       </c>
       <c r="R166">
-        <v>1.27591</v>
+        <v>1.2759</v>
       </c>
       <c r="S166" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="T166">
         <v>1.2761</v>
@@ -13639,13 +13639,13 @@
         <v>1.28172</v>
       </c>
       <c r="N169">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="O169">
-        <v>1.28353</v>
+        <v>1.28354</v>
       </c>
       <c r="P169" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q169">
         <v>-0.2</v>
@@ -13793,13 +13793,13 @@
         <v>1.28852</v>
       </c>
       <c r="N171">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="O171">
-        <v>1.28903</v>
+        <v>1.28908</v>
       </c>
       <c r="P171" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q171">
         <v>-1.8</v>
@@ -13870,13 +13870,13 @@
         <v>1.28814</v>
       </c>
       <c r="N172">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O172">
-        <v>1.28814</v>
+        <v>1.28818</v>
       </c>
       <c r="P172" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="Q172">
         <v>-11</v>
@@ -13956,13 +13956,13 @@
         <v>58</v>
       </c>
       <c r="Q173">
-        <v>-14.9</v>
+        <v>-20.9</v>
       </c>
       <c r="R173">
-        <v>1.29878</v>
+        <v>1.29818</v>
       </c>
       <c r="S173" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="T173">
         <v>1.29965</v>
@@ -14033,13 +14033,13 @@
         <v>58</v>
       </c>
       <c r="Q174">
-        <v>-15.3</v>
+        <v>-15.5</v>
       </c>
       <c r="R174">
-        <v>1.30042</v>
+        <v>1.3004</v>
       </c>
       <c r="S174" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="T174">
         <v>1.30075</v>
@@ -14341,13 +14341,13 @@
         <v>33</v>
       </c>
       <c r="Q178">
-        <v>-8.5</v>
+        <v>-8.9</v>
       </c>
       <c r="R178">
-        <v>1.29546</v>
+        <v>1.29542</v>
       </c>
       <c r="S178" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="T178">
         <v>1.29575</v>
@@ -14495,13 +14495,13 @@
         <v>31</v>
       </c>
       <c r="Q180">
-        <v>-10.7</v>
+        <v>-16.7</v>
       </c>
       <c r="R180">
-        <v>1.29535</v>
+        <v>1.29475</v>
       </c>
       <c r="S180" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T180">
         <v>1.29575</v>
@@ -14886,13 +14886,13 @@
         <v>31</v>
       </c>
       <c r="Q185">
-        <v>-1.9</v>
+        <v>-4.3</v>
       </c>
       <c r="R185">
-        <v>1.30741</v>
+        <v>1.30717</v>
       </c>
       <c r="S185" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="T185">
         <v>1.3077</v>
@@ -15114,13 +15114,13 @@
         <v>1.31452</v>
       </c>
       <c r="N188">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O188">
-        <v>1.31532</v>
+        <v>1.31535</v>
       </c>
       <c r="P188" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q188">
         <v>-1</v>
@@ -15274,13 +15274,13 @@
         <v>1.30854</v>
       </c>
       <c r="N190">
-        <v>13.2</v>
+        <v>14.3</v>
       </c>
       <c r="O190">
-        <v>1.30986</v>
+        <v>1.30997</v>
       </c>
       <c r="P190" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Q190">
         <v>-0.3</v>
@@ -15514,13 +15514,13 @@
         <v>57</v>
       </c>
       <c r="Q193">
-        <v>-3.6</v>
+        <v>-6.5</v>
       </c>
       <c r="R193">
-        <v>1.31824</v>
+        <v>1.31795</v>
       </c>
       <c r="S193" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="T193">
         <v>1.31865</v>
@@ -15591,13 +15591,13 @@
         <v>56</v>
       </c>
       <c r="Q194">
-        <v>-9.199999999999999</v>
+        <v>-11.7</v>
       </c>
       <c r="R194">
-        <v>1.31177</v>
+        <v>1.31152</v>
       </c>
       <c r="S194" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T194">
         <v>1.31215</v>
@@ -15659,13 +15659,13 @@
         <v>1.30168</v>
       </c>
       <c r="N195">
-        <v>21.1</v>
+        <v>28.1</v>
       </c>
       <c r="O195">
-        <v>1.30379</v>
+        <v>1.30449</v>
       </c>
       <c r="P195" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -16053,13 +16053,13 @@
         <v>57</v>
       </c>
       <c r="Q200">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="R200">
-        <v>1.30705</v>
+        <v>1.30698</v>
       </c>
       <c r="S200" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="T200">
         <v>1.3079</v>
@@ -16121,13 +16121,13 @@
         <v>1.30636</v>
       </c>
       <c r="N201">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="O201">
-        <v>1.30678</v>
+        <v>1.30706</v>
       </c>
       <c r="P201" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Q201">
         <v>-0.3</v>
@@ -16207,13 +16207,13 @@
         <v>55</v>
       </c>
       <c r="Q202">
-        <v>-18.2</v>
+        <v>-20</v>
       </c>
       <c r="R202">
-        <v>1.3087</v>
+        <v>1.30852</v>
       </c>
       <c r="S202" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="T202">
         <v>1.30895</v>
@@ -16361,13 +16361,13 @@
         <v>50</v>
       </c>
       <c r="Q204">
-        <v>-16</v>
+        <v>-17.9</v>
       </c>
       <c r="R204">
-        <v>1.3211</v>
+        <v>1.32091</v>
       </c>
       <c r="S204" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="T204">
         <v>1.32145</v>
@@ -16598,13 +16598,13 @@
         <v>27</v>
       </c>
       <c r="Q207">
-        <v>-4.1</v>
+        <v>-7</v>
       </c>
       <c r="R207">
-        <v>1.32104</v>
+        <v>1.32075</v>
       </c>
       <c r="S207" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T207">
         <v>1.3213</v>
@@ -16666,13 +16666,13 @@
         <v>1.3132</v>
       </c>
       <c r="N208">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O208">
-        <v>1.31343</v>
+        <v>1.31347</v>
       </c>
       <c r="P208" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q208">
         <v>-9.199999999999999</v>
@@ -16906,13 +16906,13 @@
         <v>31</v>
       </c>
       <c r="Q211">
-        <v>-1.9</v>
+        <v>-2.4</v>
       </c>
       <c r="R211">
-        <v>1.29714</v>
+        <v>1.29709</v>
       </c>
       <c r="S211" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="T211">
         <v>1.2975</v>
@@ -16983,13 +16983,13 @@
         <v>40</v>
       </c>
       <c r="Q212">
-        <v>-1.8</v>
+        <v>-3</v>
       </c>
       <c r="R212">
-        <v>1.29735</v>
+        <v>1.29723</v>
       </c>
       <c r="S212" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T212">
         <v>1.29745</v>
@@ -17066,13 +17066,13 @@
         <v>58</v>
       </c>
       <c r="Q213">
-        <v>-10.9</v>
+        <v>-12.8</v>
       </c>
       <c r="R213">
-        <v>1.29119</v>
+        <v>1.291</v>
       </c>
       <c r="S213" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T213">
         <v>1.29135</v>
@@ -17143,13 +17143,13 @@
         <v>58</v>
       </c>
       <c r="Q214">
-        <v>-13.5</v>
+        <v>-15.7</v>
       </c>
       <c r="R214">
-        <v>1.28143</v>
+        <v>1.28121</v>
       </c>
       <c r="S214" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="T214">
         <v>1.28145</v>
@@ -17211,13 +17211,13 @@
         <v>1.28156</v>
       </c>
       <c r="N215">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O215">
-        <v>1.28197</v>
+        <v>1.28199</v>
       </c>
       <c r="P215" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Q215">
         <v>-5.3</v>
@@ -17294,13 +17294,13 @@
         <v>1.28097</v>
       </c>
       <c r="N216">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="O216">
-        <v>1.28135</v>
+        <v>1.28141</v>
       </c>
       <c r="P216" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q216">
         <v>-1.1</v>
@@ -17448,13 +17448,13 @@
         <v>1.27624</v>
       </c>
       <c r="N218">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="O218">
-        <v>1.27685</v>
+        <v>1.27689</v>
       </c>
       <c r="P218" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Q218">
         <v>-4.8</v>
@@ -17611,13 +17611,13 @@
         <v>34</v>
       </c>
       <c r="Q220">
-        <v>-2.6</v>
+        <v>-3</v>
       </c>
       <c r="R220">
-        <v>1.2982</v>
+        <v>1.29816</v>
       </c>
       <c r="S220" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="T220">
         <v>1.29645</v>
@@ -17842,13 +17842,13 @@
         <v>58</v>
       </c>
       <c r="Q223">
-        <v>-27.5</v>
+        <v>-27.8</v>
       </c>
       <c r="R223">
-        <v>1.31334</v>
+        <v>1.31331</v>
       </c>
       <c r="S223" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="T223">
         <v>1.31425</v>
@@ -18073,13 +18073,13 @@
         <v>33</v>
       </c>
       <c r="Q226">
-        <v>-22</v>
+        <v>-25.9</v>
       </c>
       <c r="R226">
-        <v>1.28674</v>
+        <v>1.28635</v>
       </c>
       <c r="S226" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="T226">
         <v>1.28685</v>
@@ -18141,13 +18141,13 @@
         <v>1.29502</v>
       </c>
       <c r="N227">
-        <v>43</v>
+        <v>45.5</v>
       </c>
       <c r="O227">
-        <v>1.29932</v>
+        <v>1.29957</v>
       </c>
       <c r="P227" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Q227">
         <v>-1.5</v>
@@ -18464,13 +18464,13 @@
         <v>58</v>
       </c>
       <c r="Q231">
-        <v>-9.199999999999999</v>
+        <v>-13.3</v>
       </c>
       <c r="R231">
-        <v>1.28619</v>
+        <v>1.28578</v>
       </c>
       <c r="S231" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="T231">
         <v>1.28635</v>
@@ -18618,13 +18618,13 @@
         <v>57</v>
       </c>
       <c r="Q233">
-        <v>-7.5</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="R233">
-        <v>1.27769</v>
+        <v>1.27762</v>
       </c>
       <c r="S233" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="T233">
         <v>1.2781</v>
@@ -18772,13 +18772,13 @@
         <v>50</v>
       </c>
       <c r="Q235">
-        <v>-13.2</v>
+        <v>-17.8</v>
       </c>
       <c r="R235">
-        <v>1.28063</v>
+        <v>1.28017</v>
       </c>
       <c r="S235" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="T235">
         <v>1.2807</v>
@@ -18849,13 +18849,13 @@
         <v>40</v>
       </c>
       <c r="Q236">
-        <v>-4.1</v>
+        <v>-7.3</v>
       </c>
       <c r="R236">
-        <v>1.28257</v>
+        <v>1.28225</v>
       </c>
       <c r="S236" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T236">
         <v>1.2828</v>
@@ -18926,13 +18926,13 @@
         <v>31</v>
       </c>
       <c r="Q237">
-        <v>-7.2</v>
+        <v>-7.8</v>
       </c>
       <c r="R237">
-        <v>1.27379</v>
+        <v>1.27373</v>
       </c>
       <c r="S237" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="T237">
         <v>1.2743</v>
@@ -19071,13 +19071,13 @@
         <v>1.27679</v>
       </c>
       <c r="N239">
-        <v>7.6</v>
+        <v>12.1</v>
       </c>
       <c r="O239">
-        <v>1.27755</v>
+        <v>1.278</v>
       </c>
       <c r="P239" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Q239">
         <v>-3.9</v>
@@ -19148,13 +19148,13 @@
         <v>1.27567</v>
       </c>
       <c r="N240">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="O240">
-        <v>1.27599</v>
+        <v>1.27626</v>
       </c>
       <c r="P240" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="Q240">
         <v>-6.8</v>
@@ -19468,13 +19468,13 @@
         <v>1.27738</v>
       </c>
       <c r="N244">
-        <v>5.3</v>
+        <v>9</v>
       </c>
       <c r="O244">
-        <v>1.27791</v>
+        <v>1.27828</v>
       </c>
       <c r="P244" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Q244">
         <v>-0.6</v>
@@ -19545,13 +19545,13 @@
         <v>1.27403</v>
       </c>
       <c r="N245">
-        <v>16.8</v>
+        <v>18.1</v>
       </c>
       <c r="O245">
-        <v>1.27571</v>
+        <v>1.27584</v>
       </c>
       <c r="P245" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Q245">
         <v>-3.9</v>
@@ -19708,13 +19708,13 @@
         <v>58</v>
       </c>
       <c r="Q247">
-        <v>-8.4</v>
+        <v>-54.7</v>
       </c>
       <c r="R247">
-        <v>1.25483</v>
+        <v>1.2502</v>
       </c>
       <c r="S247" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T247">
         <v>1.25425</v>
@@ -19868,13 +19868,13 @@
         <v>31</v>
       </c>
       <c r="Q249">
-        <v>-5.4</v>
+        <v>-6.8</v>
       </c>
       <c r="R249">
-        <v>1.2618</v>
+        <v>1.26166</v>
       </c>
       <c r="S249" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="T249">
         <v>1.26205</v>
@@ -19936,13 +19936,13 @@
         <v>1.25531</v>
       </c>
       <c r="N250">
-        <v>4.8</v>
+        <v>7.5</v>
       </c>
       <c r="O250">
-        <v>1.25579</v>
+        <v>1.25606</v>
       </c>
       <c r="P250" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q250">
         <v>-4</v>
@@ -20398,13 +20398,13 @@
         <v>1.27044</v>
       </c>
       <c r="N256">
-        <v>11.7</v>
+        <v>13.3</v>
       </c>
       <c r="O256">
-        <v>1.27161</v>
+        <v>1.27177</v>
       </c>
       <c r="P256" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Q256">
         <v>-0.8</v>
@@ -20567,13 +20567,13 @@
         <v>52</v>
       </c>
       <c r="Q258">
-        <v>-18</v>
+        <v>-23.1</v>
       </c>
       <c r="R258">
-        <v>1.26374</v>
+        <v>1.26323</v>
       </c>
       <c r="S258" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="T258">
         <v>1.2639</v>
@@ -20721,13 +20721,13 @@
         <v>56</v>
       </c>
       <c r="Q260">
-        <v>-42.7</v>
+        <v>-65</v>
       </c>
       <c r="R260">
-        <v>1.27435</v>
+        <v>1.27212</v>
       </c>
       <c r="S260" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T260">
         <v>1.2746</v>
